--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1216.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1216.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8740117891514768</v>
+        <v>1.186012625694275</v>
       </c>
       <c r="B1">
-        <v>3.05915225971816</v>
+        <v>2.269022703170776</v>
       </c>
       <c r="C1">
-        <v>3.524517560433007</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.153732850432951</v>
+        <v>2.333497047424316</v>
       </c>
       <c r="E1">
-        <v>1.2957174092893</v>
+        <v>1.218836188316345</v>
       </c>
     </row>
   </sheetData>
